--- a/Copy of QUALITY_REVIEW_NEW_STYLE(1).xlsx
+++ b/Copy of QUALITY_REVIEW_NEW_STYLE(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Bimo\Project\First Output Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Bimo\Backup Program\fo_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A6669-8F0D-410E-B41C-EB349A88AC9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E815C2A-F0B5-4AB5-8BF4-84445B1270FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,6 +211,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,12 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -729,16 +729,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
@@ -773,33 +773,33 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
@@ -812,7 +812,7 @@
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="2"/>
@@ -845,14 +845,14 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
-        <v>6</v>
-      </c>
-      <c r="F10" s="9">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
         <f>(E10/D10)*1000</f>
-        <v>352.94117647058823</v>
+        <v>200</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -863,14 +863,14 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9" t="e">
-        <f t="shared" ref="F11:F12" si="0">(E11/D11)*1000</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11:F20" si="0">(E11/D11)*1000</f>
+        <v>250</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -881,14 +881,14 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9" t="e">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>294.11764705882354</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -898,15 +898,15 @@
     <row r="13" spans="2:10">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="9" t="e">
-        <f>(SUM(F10:F12))/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="9" t="e">
-        <f>SUM(F10:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>333.33333333333331</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -916,11 +916,15 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <f>SUM(D10:D12)</f>
-        <v>17</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>368.4210526315789</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -929,9 +933,16 @@
     <row r="15" spans="2:10">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -940,9 +951,13 @@
     <row r="16" spans="2:10">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -951,9 +966,13 @@
     <row r="17" spans="2:10">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -962,11 +981,13 @@
     <row r="18" spans="2:10">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -975,9 +996,13 @@
     <row r="19" spans="2:10">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -986,9 +1011,13 @@
     <row r="20" spans="2:10">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -997,10 +1026,22 @@
     <row r="21" spans="2:10">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="D21" s="2">
+        <f>SUM(D10:D20)</f>
+        <v>105</v>
+      </c>
+      <c r="E21" s="2">
+        <f>SUM(E10:E20)</f>
+        <v>33</v>
+      </c>
+      <c r="F21" s="5">
+        <f>(SUM(F10:F20))/6</f>
+        <v>307.64533883728933</v>
+      </c>
+      <c r="G21" s="5">
+        <f>SUM(F10:F15)</f>
+        <v>1845.8720330237359</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1009,6 +1050,9 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="s">
@@ -1019,18 +1063,18 @@
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1039,18 +1083,18 @@
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1060,52 +1104,61 @@
       <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="1">
         <v>4</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
@@ -1122,15 +1175,6 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
